--- a/biology/Zoologie/Hexinlusaurus/Hexinlusaurus.xlsx
+++ b/biology/Zoologie/Hexinlusaurus/Hexinlusaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexinlusaurus est un genre éteint de dinosaures Ornithischia basal du Jurassique moyen en Chine. Le type et la seule espèce est Hexinlusaurus multidens.
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype ZDM T6001 (du Zigong Dinosaur Museum, Dashanpu, en République populaire de Chine), se compose d'un crâne articulé presque complet et de matériel post-crânien, collecté à partir d'un grès terrestre dans la formation inférieure de Shaximiao (Bajocien) dans la célèbre carrière à dinosaures de Dashanpu (- 169 Ma). Un paratype (ZDM T6002) se compose d'un crâne partiel et de restes post-crâniens. Auparavant, il avait été décrit comme une espèce de Yandusaurus, Y. multidens (He et Cai, 1983), mais a été reclassé comme un nouveau taxon par Paul M. Barrett, Richard J. Butler et Fabien Knoll en 2005, qui l'ont catalogué anatomiquement comme espèce comme suit : "Un petit dinosaure ornithischien se distinguant de tous les autres ornithischiens basaux par une seule autapomorphie, la présence d'une concavité marquée qui s'étend sur la surface latérale du postorbitaire." L'étymologie du nom de genre honore le professeur "He Xin-Lu" (de l'Université de technologie de Chengdu) qui nomma à l'origine le spécimen Y. multidens plus le "sauros" grec (lézard). Hexinlusaurus était un petit herbivore aux pieds agiles.
 D'autres dinosaures célèbres de Dashanpu comprennent le sauropode Shunosaurus, le théropode Gasosaurus, et le stégosaure Huayangosaurus.
-Avant d'être officiellement nommé Hexinlusaurus, ce genre était brièvement connu sous le nom informel de « Proyandusaurus ». Ce nom figurait à l'origine dans un résumé attribué à Fabien Knoll, qui aurait été publié en 1999 sans son consentement.[1],[2]
+Avant d'être officiellement nommé Hexinlusaurus, ce genre était brièvement connu sous le nom informel de « Proyandusaurus ». Ce nom figurait à l'origine dans un résumé attribué à Fabien Knoll, qui aurait été publié en 1999 sans son consentement.,
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cladogramme dans Ornithischia
-Ce cladogramme fut proposé par Boyd et al. en 2009[3].
+          <t>Cladogramme dans Ornithischia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cladogramme fut proposé par Boyd et al. en 2009.
 Les autres Ornithopodes au-delà de Tenontosaurus sont omis. Les dinosaures décrits comme des Hypsilophodontes se déclinent d'Agilisaurus ou Hexinlusaurus à Hypsilophodon ou Gasparinisaura.
 </t>
         </is>
